--- a/data/extracted_data/raw/Martins_etal_2020_Fig1.xlsx
+++ b/data/extracted_data/raw/Martins_etal_2020_Fig1.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548F4402-0FD8-DB45-A202-B630E2AB7AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27271657-7F1C-7D48-8B7D-7F1CD04FEDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7900" yWindow="7200" windowWidth="24040" windowHeight="12440" xr2:uid="{6C0D4508-F1FA-EC47-B18D-1956A44E3624}"/>
   </bookViews>
   <sheets>
     <sheet name="Martins_etal_2020_Fig1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>day</t>
   </si>
   <si>
     <t>toxicity</t>
-  </si>
-  <si>
-    <t>toxicity_sd</t>
   </si>
   <si>
     <t>OA</t>
@@ -38,6 +48,9 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -898,169 +911,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0760C275-1BCA-AD4B-8153-D31439E0C13C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>574.07407407407402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1101.8518518518499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>851.85185185185105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>916.66666666666595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>509.25925925925901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C7">
+        <v>1388.88888888888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2814.8148148148098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1962.9629629629601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1555.55555555555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>435.18518518518499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1500</v>
-      </c>
-      <c r="D2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C12">
+        <v>1962.962962962954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>2800</v>
-      </c>
-      <c r="D3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3916.6666666666597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C14">
+        <v>2814.8148148148111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1700</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C15">
+        <v>2472.2222222222158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>600</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>700</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1200</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>800</v>
-      </c>
-      <c r="D9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>900</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>700</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
+      <c r="C16">
+        <v>944.444444444444</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>